--- a/graph_generation/results_prelim/gpt3.5/level_3/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_3/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -28,88 +30,144 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 what is the shortest path from node A to node J?
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- O 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N
+ A 0 1 0 0 0 0 0 0 0 0 0 1 1 0
+ B 1 0 1 0 0 0 0 0 0 0 1 0 0 0
+ C 0 1 0 1 1 0 0 0 0 0 0 0 0 1
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 0 0 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ L 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ N 0 0 1 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; G -&gt; H -&gt; I -&gt; J</t>
+    <t>A -&gt; B -&gt; C -&gt; E -&gt; J</t>
   </si>
   <si>
     <t>To find the shortest path from node A to node J, we can use the Breadth-First Search (BFS) algorithm.
-The BFS algorithm explores all the vertices in the graph in a breadthward motion from the starting vertex (A). It visits all the vertices at distance 1 from the starting vertex, then all the vertices at distance 2, and so on, until it reaches the target vertex (J) or all vertices have been visited.
-Here is how we can apply the BFS algorithm to find the shortest path from node A to node J:
-1. Start by initializing an empty queue and an empty list to store the visited nodes.
-2. Add the starting node A to the queue and mark it as visited.
-3. While the queue is not empty, do the following:
-   a. Remove a node from the front of the queue.
-   b. If the removed node is equal to the target node J, we have found the shortest path.
-   c. Otherwise, for each adjacent node that has not been visited, mark it as visited, add it to the queue, and mark its parent as the removed node.
-4. If the target node J is not found after visiting all nodes, it means there is no path from node A to node J.
-Using the given adjacency matrix, here is how the BFS algorithm can be applied:
-Queue: [A]
-Visited: [A]
-1. Remove node A from the queue.
-   - A is not equal to J, so continue.
-   Possible adjacent nodes: [B, E, G, M]
-   Mark B as visited and add it to the queue. Parent: A
-   Mark E as visited and add it to the queue. Parent: A
-   Mark G as visited and add it to the queue. Parent: A
-   Mark M as visited and add it to the queue. Parent: A
-Queue: [B, E, G, M]
-Visited: [A, B, E, G, M]
-2. Remove node B from the queue.
-   - B is not equal to J, so continue.
-   Possible adjacent nodes: [A, C]
-   Mark A as visited and add it to the queue. Parent: B
-   Mark C as visited and add it to the queue. Parent: B
-Queue: [E, G, M, A, C]
-Visited: [A, B, E, G, M, C]
-3. Remove node E from the queue.
-   - E is not equal to J, so continue.
-   Possible adjacent nodes: [A, F]
-   A is already visited, so skip it.
-   Mark F as visited and add it to the queue. Parent: E
-Queue: [G, M, A, C, F]
-Visited: [A, B, E, G, M, C, F]
-4. Remove node G from the queue.
-   - G is not equal to J, so continue.
-   Possible adjacent nodes: [A, H, N, O]
-   A is already visited, so skip it.
-   Mark H as visited and add it to the queue. Parent: G
-   Mark N as visited and add it to the queue. Parent: G
-   Mark O as visited and add it to the queue. Parent: G
-Queue: [M, A, C, F, H, N, O]
-Visited: [A, B, E, G, M, C, F, H, N, O]
-5. Remove node M from the queue.
-   - M is not equal to J, so continue.
-   Possible adjacent nodes: [A]
-   A is already visited, so skip it.
-Queue: [A, C, F, H, N, O]
-Visited: [A, B, E, G, M, C, F, H, N, O]
-6. Remove node A from the queue.
-   - A is equal to J, so we have found the shortest path.
-The shortest path from node A to node J is: A -&gt; G -&gt; N -&gt; J.
-Note: This is just one possible shortest path. There might be multiple shortest paths if there are multiple edges with the same weight.</t>
+1. Start at node A.
+2. Initialize an empty queue and enqueue A.
+3. Initialize a visited array to keep track of visited nodes and mark A as visited.
+4. While the queue is not empty:
+   a. Dequeue a node from the queue.
+   b. If the dequeued node is J, we have found the shortest path. Return the path.
+   c. Otherwise, enqueue all the neighboring nodes of the dequeued node that haven't been visited yet and mark them as visited.
+5. If the queue becomes empty and we haven't found J, there is no path from A to J.
+Using this algorithm, we can find the shortest path from A to J in the given graph.
+A -&gt; B -&gt; K -&gt; L -&gt; J
+Therefore, the shortest path from node A to node J is A -&gt; B -&gt; K -&gt; L -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 2/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use the Breadth-First Search (BFS) algorithm. The BFS algorithm explores all the neighbors of a node before moving on to the next level of neighbors. We can start by initializing a queue and adding node A to it. We will also initialize a visited array to keep track of the nodes we have visited.
+Here is the step-by-step process:
+1. Initialize an empty queue and add node A to it.
+2. Initialize a visited array and mark node A as visited.
+3. While the queue is not empty, perform the following steps:
+   a. Remove the first node from the queue.
+   b. Check if the removed node is node T. If yes, we have found the shortest path and can stop the algorithm.
+   c. Otherwise, iterate through all the neighbors of the removed node.
+   d. If a neighbor has not been visited yet, mark it as visited, add it to the queue, and store its parent node.
+4. If the queue becomes empty and we have not found node T, there is no path from node A to node T.
+In this case, the shortest path from node A to node T is:
+A -&gt; B -&gt; P -&gt; O -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>Output: 1/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
+ U 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ Z 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; K -&gt; L -&gt; P -&gt; T</t>
+  </si>
+  <si>
+    <t>Based on the given adjacency matrix, we can determine the shortest path from node A to node T by performing a BFS (Breadth First Search) algorithm.
+Starting from node A, we check its adjacent nodes. In this case, B is adjacent to A. We continue visiting the adjacent nodes until we reach node T.
+A -&gt; B -&gt; K -&gt; L -&gt; R -&gt; T
+Therefore, the shortest path from node A to node T is A -&gt; B -&gt; K -&gt; L -&gt; R -&gt; T.</t>
+  </si>
+  <si>
+    <t>Output: 4/6</t>
   </si>
 </sst>
 </file>
@@ -467,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,19 +544,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_3/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_3/k_0.xlsx
@@ -33,141 +33,175 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node J?
-   A B C D E F G H I J K L M N
- A 0 1 0 0 0 0 0 0 0 0 0 1 1 0
- B 1 0 1 0 0 0 0 0 0 0 1 0 0 0
- C 0 1 0 1 1 0 0 0 0 0 0 0 0 1
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- L 1 0 0 0 0 0 0 0 0 0 1 0 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- N 0 0 1 0 0 0 0 0 0 0 0 0 1 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1
+ B 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ H 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ O 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; E -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J, we can use the Breadth-First Search (BFS) algorithm.
+    <t>A -&gt; B -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node J, we can use the breadth-first search (BFS) algorithm. Starting from node A, we explore all its neighbors, then the neighbors of its neighbors, and so on, until we reach node J.
+Here is the BFS process step by step:
 1. Start at node A.
-2. Initialize an empty queue and enqueue A.
-3. Initialize a visited array to keep track of visited nodes and mark A as visited.
-4. While the queue is not empty:
-   a. Dequeue a node from the queue.
-   b. If the dequeued node is J, we have found the shortest path. Return the path.
-   c. Otherwise, enqueue all the neighboring nodes of the dequeued node that haven't been visited yet and mark them as visited.
-5. If the queue becomes empty and we haven't found J, there is no path from A to J.
-Using this algorithm, we can find the shortest path from A to J in the given graph.
-A -&gt; B -&gt; K -&gt; L -&gt; J
-Therefore, the shortest path from node A to node J is A -&gt; B -&gt; K -&gt; L -&gt; J.</t>
+2. Explore its neighbors: B and K.
+3. Explore the neighbors of B and K: C, D, L, and E.
+4. Explore the neighbors of C, D, L, and E: H, M, F, and I.
+5. Explore the neighbors of H, M, F, and I: G, N, and J.
+At this point, we have reached node J, so the shortest path from node A to node J is A -&gt; K -&gt; B -&gt; E -&gt; D -&gt; L -&gt; H -&gt; I -&gt; J.
+Therefore, the sequence of nodes in the shortest path from node A to node J is:
+A -&gt; K -&gt; B -&gt; E -&gt; D -&gt; L -&gt; H -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 2/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node T?
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    <t>2/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use the Breadth-First Search (BFS) algorithm. The BFS algorithm explores all the neighbors of a node before moving on to the next level of neighbors. We can start by initializing a queue and adding node A to it. We will also initialize a visited array to keep track of the nodes we have visited.
-Here is the step-by-step process:
-1. Initialize an empty queue and add node A to it.
-2. Initialize a visited array and mark node A as visited.
-3. While the queue is not empty, perform the following steps:
-   a. Remove the first node from the queue.
-   b. Check if the removed node is node T. If yes, we have found the shortest path and can stop the algorithm.
-   c. Otherwise, iterate through all the neighbors of the removed node.
-   d. If a neighbor has not been visited yet, mark it as visited, add it to the queue, and store its parent node.
-4. If the queue becomes empty and we have not found node T, there is no path from node A to node T.
-In this case, the shortest path from node A to node T is:
-A -&gt; B -&gt; P -&gt; O -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>Output: 1/6</t>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; F -&gt; G -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T is: A, B, C, D, E, F, G, H, I, J, K, T.</t>
+  </si>
+  <si>
+    <t>7/14</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- U 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
- Z 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; K -&gt; L -&gt; P -&gt; T</t>
-  </si>
-  <si>
-    <t>Based on the given adjacency matrix, we can determine the shortest path from node A to node T by performing a BFS (Breadth First Search) algorithm.
-Starting from node A, we check its adjacent nodes. In this case, B is adjacent to A. We continue visiting the adjacent nodes until we reach node T.
-A -&gt; B -&gt; K -&gt; L -&gt; R -&gt; T
-Therefore, the shortest path from node A to node T is A -&gt; B -&gt; K -&gt; L -&gt; R -&gt; T.</t>
-  </si>
-  <si>
-    <t>Output: 4/6</t>
+    <t>A -&gt; K -&gt; L -&gt; O -&gt; P -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use the Breadth-First Search (BFS) algorithm. 
+Starting at node A, we will explore all possible connections in a breadth-first manner until we reach node T. 
+Here is the step-by-step process of BFS:
+- Initialize a queue to keep track of the nodes to be explored.
+- Enqueue the starting node A into the queue.
+- Create an empty set to keep track of visited nodes.
+- While the queue is not empty:
+  - Dequeue a node from the queue.
+  - If the dequeued node is T, return the path from node A to T.
+  - If the dequeued node has not been visited:
+    - Mark the node as visited.
+    - Enqueue all adjacent nodes of the dequeued node into the queue.
+      - Adjacent nodes are those with a connection value of 1 in the adjacency matrix.
+      - To keep track of the path, enqueue nodes along with the path taken so far.
+Let's apply the BFS algorithm to find the shortest path from node A to node T:
+1. Enqueue (A, [A]) into the queue.
+2. Dequeue (A, [A]).
+   - Mark A as visited.
+   - Enqueue node B into the queue with path [A, B].
+   - Enqueue node C into the queue with path [A, C].
+3. Dequeue (B, [A, B]).
+   - Mark B as visited.
+   - Enqueue node C into the queue with path [A, B, C].
+4. Dequeue (C, [A, C]).
+   - Mark C as visited.
+   - Enqueue node D into the queue with path [A, C, D].
+5. Dequeue (D, [A, C, D]).
+   - Mark D as visited.
+   - Enqueue node E into the queue with path [A, C, D, E].
+   - Enqueue node F into the queue with path [A, C, D, F].
+   - Enqueue node G into the queue with path [A, C, D, G].
+   - Enqueue node H into the queue with path [A, C, D, H].
+6. Dequeue (E, [A, C, D, E]).
+   - Mark E as visited.
+   - Enqueue node D into the queue with path [A, C, D, E, D].
+7. Dequeue (F, [A, C, D, F]).
+   - Mark F as visited.
+   - Enqueue node D into the queue with path [A, C, D, F, D].
+8. Dequeue (G, [A, C, D, G]).
+   - Mark G as visited.
+   - Enqueue node D into the queue with path [A, C, D, G, D].
+9. Dequeue (H, [A, C, D, H]).
+   - Mark H as visited.
+   - Enqueue node D into the queue with path [A, C, D, H, D].
+   - Enqueue node I into the queue with path [A, C, D, H, I].
+10. Dequeue (D, [A, C, D, E, D]).
+    - D is the destination node T.
+    - Return the path [A, C, D].
+Therefore, the shortest path from node A to node T is: A -&gt; C -&gt; D.</t>
+  </si>
+  <si>
+    <t>0/8</t>
   </si>
 </sst>
 </file>
